--- a/HoI2Editor/Documents/misc.xlsx
+++ b/HoI2Editor/Documents/misc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7845" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11262" uniqueCount="4094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11273" uniqueCount="4105">
   <si>
     <t>IC to Money Ratio</t>
   </si>
@@ -21874,6 +21874,50 @@
   </si>
   <si>
     <t>NonNegDbl5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>economyEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intelligenceEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diplomacyEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>combatEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>missionEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>countryEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>researchEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tradeEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aiEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapEnd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -22566,8 +22610,8 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23833,7 +23877,9 @@
       <c r="A27" s="4" t="s">
         <v>4031</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>4101</v>
+      </c>
       <c r="C27" s="30" t="s">
         <v>4062</v>
       </c>
@@ -23884,7 +23930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F34"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25486,7 +25532,9 @@
       <c r="A34" s="4" t="s">
         <v>4029</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>4102</v>
+      </c>
       <c r="C34" s="30" t="s">
         <v>4062</v>
       </c>
@@ -25537,7 +25585,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F50"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -27913,7 +27961,9 @@
       <c r="A50" s="4" t="s">
         <v>4027</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>4103</v>
+      </c>
       <c r="C50" s="30" t="s">
         <v>4062</v>
       </c>
@@ -27964,7 +28014,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F7"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28272,7 +28322,9 @@
       <c r="A7" s="4" t="s">
         <v>4025</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>4104</v>
+      </c>
       <c r="C7" s="30" t="s">
         <v>4062</v>
       </c>
@@ -28649,9 +28701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G182" sqref="G182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -37453,7 +37505,9 @@
       <c r="A184" s="4" t="s">
         <v>4020</v>
       </c>
-      <c r="B184" s="4"/>
+      <c r="B184" s="4" t="s">
+        <v>4094</v>
+      </c>
       <c r="C184" s="30" t="s">
         <v>4062</v>
       </c>
@@ -37505,7 +37559,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F18"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -38339,7 +38393,9 @@
       <c r="A18" s="4" t="s">
         <v>4023</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>4095</v>
+      </c>
       <c r="C18" s="30" t="s">
         <v>4062</v>
       </c>
@@ -38391,7 +38447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F17"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39177,7 +39233,9 @@
       <c r="A17" s="4" t="s">
         <v>4041</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>4096</v>
+      </c>
       <c r="C17" s="30" t="s">
         <v>4062</v>
       </c>
@@ -54318,7 +54376,9 @@
       <c r="A315" s="4" t="s">
         <v>4039</v>
       </c>
-      <c r="B315" s="4"/>
+      <c r="B315" s="4" t="s">
+        <v>4097</v>
+      </c>
       <c r="C315" s="30" t="s">
         <v>4062</v>
       </c>
@@ -58804,7 +58864,9 @@
       <c r="A93" s="4" t="s">
         <v>4037</v>
       </c>
-      <c r="B93" s="4"/>
+      <c r="B93" s="4" t="s">
+        <v>4098</v>
+      </c>
       <c r="C93" s="30" t="s">
         <v>4062</v>
       </c>
@@ -58855,8 +58917,8 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F40"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -60746,7 +60808,9 @@
       <c r="A40" s="4" t="s">
         <v>4035</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>4099</v>
+      </c>
       <c r="C40" s="30" t="s">
         <v>4062</v>
       </c>
@@ -60795,9 +60859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -61919,7 +61983,9 @@
       <c r="A24" s="4" t="s">
         <v>4033</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>4100</v>
+      </c>
       <c r="C24" s="30" t="s">
         <v>4062</v>
       </c>
